--- a/data/trans_orig/P16B12-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B12-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{639955FE-328F-4113-917E-564FF5A2F043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D39D9336-5EFA-4854-ABDD-6F445A9984BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{15BAD2F8-9D45-4A88-9D2D-91855EDB5F07}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{73A1D262-D5D0-4843-B145-9494D76D4E22}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -112,37 +112,37 @@
     <t>96,28%</t>
   </si>
   <si>
-    <t>78,43%</t>
+    <t>80,31%</t>
   </si>
   <si>
     <t>97,28%</t>
   </si>
   <si>
-    <t>84,6%</t>
+    <t>84,58%</t>
   </si>
   <si>
     <t>96,87%</t>
   </si>
   <si>
-    <t>89,15%</t>
+    <t>89,93%</t>
   </si>
   <si>
     <t>3,72%</t>
   </si>
   <si>
-    <t>21,57%</t>
+    <t>19,69%</t>
   </si>
   <si>
     <t>2,72%</t>
   </si>
   <si>
-    <t>15,4%</t>
+    <t>15,42%</t>
   </si>
   <si>
     <t>3,13%</t>
   </si>
   <si>
-    <t>10,85%</t>
+    <t>10,07%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -154,13 +154,13 @@
     <t>95,32%</t>
   </si>
   <si>
-    <t>75,66%</t>
+    <t>76,1%</t>
   </si>
   <si>
     <t>97,1%</t>
   </si>
   <si>
-    <t>85,82%</t>
+    <t>85,77%</t>
   </si>
   <si>
     <t>11,15%</t>
@@ -169,13 +169,13 @@
     <t>4,68%</t>
   </si>
   <si>
-    <t>24,34%</t>
+    <t>23,9%</t>
   </si>
   <si>
     <t>2,9%</t>
   </si>
   <si>
-    <t>14,18%</t>
+    <t>14,23%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -187,13 +187,13 @@
     <t>95,06%</t>
   </si>
   <si>
-    <t>76,61%</t>
+    <t>74,58%</t>
   </si>
   <si>
     <t>97,59%</t>
   </si>
   <si>
-    <t>89,36%</t>
+    <t>87,84%</t>
   </si>
   <si>
     <t>9,05%</t>
@@ -202,13 +202,13 @@
     <t>4,94%</t>
   </si>
   <si>
-    <t>23,39%</t>
+    <t>25,42%</t>
   </si>
   <si>
     <t>2,41%</t>
   </si>
   <si>
-    <t>10,64%</t>
+    <t>12,16%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -253,37 +253,37 @@
     <t>98,02%</t>
   </si>
   <si>
-    <t>89,78%</t>
+    <t>89,82%</t>
   </si>
   <si>
     <t>97,82%</t>
   </si>
   <si>
-    <t>90,49%</t>
+    <t>88,24%</t>
   </si>
   <si>
     <t>97,92%</t>
   </si>
   <si>
-    <t>92,76%</t>
+    <t>92,47%</t>
   </si>
   <si>
     <t>1,98%</t>
   </si>
   <si>
-    <t>10,22%</t>
+    <t>10,18%</t>
   </si>
   <si>
     <t>2,18%</t>
   </si>
   <si>
-    <t>9,51%</t>
+    <t>11,76%</t>
   </si>
   <si>
     <t>2,08%</t>
   </si>
   <si>
-    <t>7,24%</t>
+    <t>7,53%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -292,58 +292,58 @@
     <t>95,79%</t>
   </si>
   <si>
-    <t>84,59%</t>
+    <t>86,24%</t>
   </si>
   <si>
     <t>97,31%</t>
   </si>
   <si>
-    <t>86,52%</t>
+    <t>87,72%</t>
   </si>
   <si>
     <t>96,54%</t>
   </si>
   <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
   </si>
   <si>
     <t>4,21%</t>
   </si>
   <si>
-    <t>15,41%</t>
+    <t>13,76%</t>
   </si>
   <si>
     <t>2,69%</t>
   </si>
   <si>
-    <t>13,48%</t>
+    <t>12,28%</t>
   </si>
   <si>
     <t>3,46%</t>
   </si>
   <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
   </si>
   <si>
     <t>97,99%</t>
   </si>
   <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
   </si>
   <si>
     <t>97,48%</t>
   </si>
   <si>
-    <t>93,89%</t>
+    <t>94,4%</t>
   </si>
   <si>
     <t>99,02%</t>
@@ -352,19 +352,19 @@
     <t>97,72%</t>
   </si>
   <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
   </si>
   <si>
     <t>2,01%</t>
   </si>
   <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
   </si>
   <si>
     <t>2,52%</t>
@@ -373,16 +373,16 @@
     <t>0,98%</t>
   </si>
   <si>
-    <t>6,11%</t>
+    <t>5,6%</t>
   </si>
   <si>
     <t>2,28%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -430,30 +430,24 @@
     <t>98,23%</t>
   </si>
   <si>
-    <t>90,72%</t>
+    <t>90,73%</t>
   </si>
   <si>
     <t>99,01%</t>
   </si>
   <si>
-    <t>95,59%</t>
-  </si>
-  <si>
     <t>5,03%</t>
   </si>
   <si>
     <t>1,77%</t>
   </si>
   <si>
-    <t>9,28%</t>
+    <t>9,27%</t>
   </si>
   <si>
     <t>0,99%</t>
   </si>
   <si>
-    <t>4,41%</t>
-  </si>
-  <si>
     <t>92,68%</t>
   </si>
   <si>
@@ -484,10 +478,13 @@
     <t>98,0%</t>
   </si>
   <si>
+    <t>89,87%</t>
+  </si>
+  <si>
     <t>98,98%</t>
   </si>
   <si>
-    <t>95,83%</t>
+    <t>94,91%</t>
   </si>
   <si>
     <t>3,68%</t>
@@ -496,10 +493,13 @@
     <t>2,0%</t>
   </si>
   <si>
+    <t>10,13%</t>
+  </si>
+  <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>4,17%</t>
+    <t>5,09%</t>
   </si>
   <si>
     <t>95,66%</t>
@@ -514,169 +514,169 @@
     <t>99,33%</t>
   </si>
   <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>Porcentaje de mecicinas para la diabetes recetados en 2015 (Tasa respuesta: 7,89%)</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
     <t>97,6%</t>
   </si>
   <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
   </si>
   <si>
     <t>2,4%</t>
   </si>
   <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>Porcentaje de mecicinas para la diabetes recetados en 2015 (Tasa respuesta: 7,89%)</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
     <t>0,65%</t>
   </si>
   <si>
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,92%</t>
+    <t>1,65%</t>
   </si>
 </sst>
 </file>
@@ -1088,7 +1088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2924333-8CC8-4B54-AF02-2EA7D976C4AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE7AE5B-3FE9-4681-A245-79D4516927FD}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2619,7 +2619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32B0123-927F-45ED-84DA-A8A7246B0E27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3A70C0-A063-469A-9EA6-C21D866D6B98}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3223,7 +3223,7 @@
         <v>131</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -3247,7 +3247,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -3256,13 +3256,13 @@
         <v>886</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -3271,13 +3271,13 @@
         <v>886</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3363,7 +3363,7 @@
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -3378,7 +3378,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -3417,7 +3417,7 @@
         <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3432,7 +3432,7 @@
         <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3503,7 +3503,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -3533,7 +3533,7 @@
         <v>11</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -3557,7 +3557,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3587,7 +3587,7 @@
         <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3658,7 +3658,7 @@
         <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>13</v>
@@ -3670,10 +3670,10 @@
         <v>55347</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>36</v>
+        <v>146</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>11</v>
@@ -3685,10 +3685,10 @@
         <v>109674</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>11</v>
@@ -3712,7 +3712,7 @@
         <v>18</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -3721,13 +3721,13 @@
         <v>1131</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -3828,7 +3828,7 @@
         <v>11</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>13</v>
@@ -3882,7 +3882,7 @@
         <v>18</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -3998,7 +3998,7 @@
         <v>159</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>11</v>
@@ -4022,7 +4022,7 @@
         <v>18</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -4031,13 +4031,13 @@
         <v>2017</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -4046,13 +4046,13 @@
         <v>2017</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>165</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4132,7 +4132,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765A0D59-2969-401F-9936-4CDACC70AC9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE162B74-D978-451D-9E0F-A606DAD44C61}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4149,7 +4149,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4256,10 +4256,10 @@
         <v>17766</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>11</v>
@@ -4286,10 +4286,10 @@
         <v>28295</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>11</v>
@@ -4307,13 +4307,13 @@
         <v>1329</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4337,13 +4337,13 @@
         <v>1329</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4414,7 +4414,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -4429,7 +4429,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -4444,7 +4444,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -4468,7 +4468,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4483,7 +4483,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4498,7 +4498,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4584,7 +4584,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -4599,7 +4599,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -4638,7 +4638,7 @@
         <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -4653,7 +4653,7 @@
         <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4724,7 +4724,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -4739,7 +4739,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -4748,13 +4748,13 @@
         <v>69</v>
       </c>
       <c r="N13" s="7">
-        <v>69241</v>
+        <v>69242</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -4778,7 +4778,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4793,7 +4793,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4808,7 +4808,7 @@
         <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4850,7 +4850,7 @@
         <v>69</v>
       </c>
       <c r="N15" s="7">
-        <v>69241</v>
+        <v>69242</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -4909,7 +4909,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -4963,7 +4963,7 @@
         <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5064,7 +5064,7 @@
         <v>11</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -5118,7 +5118,7 @@
         <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5204,7 +5204,7 @@
         <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>13</v>
@@ -5219,7 +5219,7 @@
         <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>13</v>
@@ -5258,7 +5258,7 @@
         <v>18</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -5273,7 +5273,7 @@
         <v>18</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5341,10 +5341,10 @@
         <v>67934</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>11</v>
@@ -5356,10 +5356,10 @@
         <v>70283</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>11</v>
@@ -5371,10 +5371,10 @@
         <v>138217</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>185</v>
+        <v>101</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>11</v>
@@ -5392,7 +5392,7 @@
         <v>955</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>17</v>
@@ -5428,7 +5428,7 @@
         <v>17</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>186</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B12-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B12-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D39D9336-5EFA-4854-ABDD-6F445A9984BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67AA4B11-6EF4-4F92-A18E-BE1A9C72EEA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{73A1D262-D5D0-4843-B145-9494D76D4E22}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8D587B39-F293-4299-82E4-C322C0CB20DE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="217">
   <si>
     <t>Porcentaje de mecicinas para la diabetes recetados en 2007 (Tasa respuesta: 5,99%)</t>
   </si>
@@ -112,37 +112,37 @@
     <t>96,28%</t>
   </si>
   <si>
-    <t>80,31%</t>
+    <t>81,09%</t>
   </si>
   <si>
     <t>97,28%</t>
   </si>
   <si>
-    <t>84,58%</t>
+    <t>86,5%</t>
   </si>
   <si>
     <t>96,87%</t>
   </si>
   <si>
-    <t>89,93%</t>
+    <t>90,44%</t>
   </si>
   <si>
     <t>3,72%</t>
   </si>
   <si>
-    <t>19,69%</t>
+    <t>18,91%</t>
   </si>
   <si>
     <t>2,72%</t>
   </si>
   <si>
-    <t>15,42%</t>
+    <t>13,5%</t>
   </si>
   <si>
     <t>3,13%</t>
   </si>
   <si>
-    <t>10,07%</t>
+    <t>9,56%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -154,13 +154,13 @@
     <t>95,32%</t>
   </si>
   <si>
-    <t>76,1%</t>
+    <t>76,58%</t>
   </si>
   <si>
     <t>97,1%</t>
   </si>
   <si>
-    <t>85,77%</t>
+    <t>88,37%</t>
   </si>
   <si>
     <t>11,15%</t>
@@ -169,13 +169,13 @@
     <t>4,68%</t>
   </si>
   <si>
-    <t>23,9%</t>
+    <t>23,42%</t>
   </si>
   <si>
     <t>2,9%</t>
   </si>
   <si>
-    <t>14,23%</t>
+    <t>11,63%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -187,13 +187,13 @@
     <t>95,06%</t>
   </si>
   <si>
-    <t>74,58%</t>
+    <t>74,8%</t>
   </si>
   <si>
     <t>97,59%</t>
   </si>
   <si>
-    <t>87,84%</t>
+    <t>85,57%</t>
   </si>
   <si>
     <t>9,05%</t>
@@ -202,13 +202,13 @@
     <t>4,94%</t>
   </si>
   <si>
-    <t>25,42%</t>
+    <t>25,2%</t>
   </si>
   <si>
     <t>2,41%</t>
   </si>
   <si>
-    <t>12,16%</t>
+    <t>14,43%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -253,37 +253,37 @@
     <t>98,02%</t>
   </si>
   <si>
-    <t>89,82%</t>
+    <t>90,04%</t>
   </si>
   <si>
     <t>97,82%</t>
   </si>
   <si>
-    <t>88,24%</t>
+    <t>85,56%</t>
   </si>
   <si>
     <t>97,92%</t>
   </si>
   <si>
-    <t>92,47%</t>
+    <t>93,46%</t>
   </si>
   <si>
     <t>1,98%</t>
   </si>
   <si>
-    <t>10,18%</t>
+    <t>9,96%</t>
   </si>
   <si>
     <t>2,18%</t>
   </si>
   <si>
-    <t>11,76%</t>
+    <t>14,44%</t>
   </si>
   <si>
     <t>2,08%</t>
   </si>
   <si>
-    <t>7,53%</t>
+    <t>6,54%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -292,97 +292,97 @@
     <t>95,79%</t>
   </si>
   <si>
-    <t>86,24%</t>
+    <t>84,9%</t>
   </si>
   <si>
     <t>97,31%</t>
   </si>
   <si>
-    <t>87,72%</t>
+    <t>86,46%</t>
   </si>
   <si>
     <t>96,54%</t>
   </si>
   <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
   </si>
   <si>
     <t>4,21%</t>
   </si>
   <si>
-    <t>13,76%</t>
+    <t>15,1%</t>
   </si>
   <si>
     <t>2,69%</t>
   </si>
   <si>
-    <t>12,28%</t>
+    <t>13,54%</t>
   </si>
   <si>
     <t>3,46%</t>
   </si>
   <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
   </si>
   <si>
     <t>97,99%</t>
   </si>
   <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
   </si>
   <si>
     <t>97,48%</t>
   </si>
   <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
   </si>
   <si>
     <t>97,72%</t>
   </si>
   <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
   </si>
   <si>
     <t>2,01%</t>
   </si>
   <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
   </si>
   <si>
     <t>2,52%</t>
   </si>
   <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
   </si>
   <si>
     <t>2,28%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -430,24 +430,30 @@
     <t>98,23%</t>
   </si>
   <si>
-    <t>90,73%</t>
+    <t>92,1%</t>
   </si>
   <si>
     <t>99,01%</t>
   </si>
   <si>
+    <t>95,16%</t>
+  </si>
+  <si>
     <t>5,03%</t>
   </si>
   <si>
     <t>1,77%</t>
   </si>
   <si>
-    <t>9,27%</t>
+    <t>7,9%</t>
   </si>
   <si>
     <t>0,99%</t>
   </si>
   <si>
+    <t>4,84%</t>
+  </si>
+  <si>
     <t>92,68%</t>
   </si>
   <si>
@@ -478,13 +484,13 @@
     <t>98,0%</t>
   </si>
   <si>
-    <t>89,87%</t>
+    <t>88,78%</t>
   </si>
   <si>
     <t>98,98%</t>
   </si>
   <si>
-    <t>94,91%</t>
+    <t>94,8%</t>
   </si>
   <si>
     <t>3,68%</t>
@@ -493,13 +499,13 @@
     <t>2,0%</t>
   </si>
   <si>
-    <t>10,13%</t>
+    <t>11,22%</t>
   </si>
   <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>5,09%</t>
+    <t>5,2%</t>
   </si>
   <si>
     <t>95,66%</t>
@@ -514,49 +520,55 @@
     <t>99,33%</t>
   </si>
   <si>
-    <t>97,27%</t>
+    <t>97,84%</t>
   </si>
   <si>
     <t>99,63%</t>
   </si>
   <si>
+    <t>98,9%</t>
+  </si>
+  <si>
     <t>0,84%</t>
   </si>
   <si>
     <t>0,67%</t>
   </si>
   <si>
-    <t>2,73%</t>
+    <t>2,16%</t>
   </si>
   <si>
     <t>0,37%</t>
   </si>
   <si>
-    <t>Porcentaje de mecicinas para la diabetes recetados en 2015 (Tasa respuesta: 7,89%)</t>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>Porcentaje de mecicinas para la diabetes recetados en 2016 (Tasa respuesta: 7,89%)</t>
   </si>
   <si>
     <t>93,04%</t>
   </si>
   <si>
-    <t>71,94%</t>
+    <t>65,53%</t>
   </si>
   <si>
     <t>95,51%</t>
   </si>
   <si>
-    <t>78,26%</t>
+    <t>77,78%</t>
   </si>
   <si>
     <t>6,96%</t>
   </si>
   <si>
-    <t>28,06%</t>
+    <t>34,47%</t>
   </si>
   <si>
     <t>4,49%</t>
   </si>
   <si>
-    <t>21,74%</t>
+    <t>22,22%</t>
   </si>
   <si>
     <t>94,55%</t>
@@ -610,73 +622,73 @@
     <t>98,61%</t>
   </si>
   <si>
-    <t>92,4%</t>
+    <t>92,99%</t>
   </si>
   <si>
     <t>98,18%</t>
   </si>
   <si>
-    <t>89,29%</t>
+    <t>90,17%</t>
   </si>
   <si>
     <t>98,39%</t>
   </si>
   <si>
+    <t>94,41%</t>
+  </si>
+  <si>
     <t>1,39%</t>
   </si>
   <si>
-    <t>7,6%</t>
+    <t>7,01%</t>
   </si>
   <si>
     <t>1,82%</t>
   </si>
   <si>
-    <t>10,71%</t>
+    <t>9,83%</t>
   </si>
   <si>
     <t>1,61%</t>
   </si>
   <si>
+    <t>5,59%</t>
+  </si>
+  <si>
     <t>99,18%</t>
   </si>
   <si>
-    <t>97,19%</t>
+    <t>97,21%</t>
   </si>
   <si>
     <t>99,52%</t>
   </si>
   <si>
-    <t>97,6%</t>
+    <t>97,58%</t>
   </si>
   <si>
     <t>99,35%</t>
   </si>
   <si>
-    <t>98,35%</t>
-  </si>
-  <si>
     <t>99,83%</t>
   </si>
   <si>
     <t>0,82%</t>
   </si>
   <si>
-    <t>2,81%</t>
+    <t>2,79%</t>
   </si>
   <si>
     <t>0,48%</t>
   </si>
   <si>
-    <t>2,4%</t>
+    <t>2,42%</t>
   </si>
   <si>
     <t>0,65%</t>
   </si>
   <si>
     <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
   </si>
 </sst>
 </file>
@@ -1088,7 +1100,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE7AE5B-3FE9-4681-A245-79D4516927FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FD3FFEC-420D-499B-BAB3-8025DF654782}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2619,7 +2631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3A70C0-A063-469A-9EA6-C21D866D6B98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B232CFD2-7BC1-4673-91AF-41E89C9F0E7E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3223,7 +3235,7 @@
         <v>131</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -3247,7 +3259,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -3256,13 +3268,13 @@
         <v>886</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -3271,13 +3283,13 @@
         <v>886</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3363,7 +3375,7 @@
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -3378,7 +3390,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -3417,7 +3429,7 @@
         <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3432,7 +3444,7 @@
         <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3503,7 +3515,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -3533,7 +3545,7 @@
         <v>11</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -3557,7 +3569,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3587,7 +3599,7 @@
         <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3658,7 +3670,7 @@
         <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>13</v>
@@ -3670,10 +3682,10 @@
         <v>55347</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>11</v>
@@ -3685,10 +3697,10 @@
         <v>109674</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>11</v>
@@ -3712,7 +3724,7 @@
         <v>18</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -3721,13 +3733,13 @@
         <v>1131</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -3736,13 +3748,13 @@
         <v>1131</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3813,7 +3825,7 @@
         <v>11</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>13</v>
@@ -3828,7 +3840,7 @@
         <v>11</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>13</v>
@@ -3867,7 +3879,7 @@
         <v>18</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3882,7 +3894,7 @@
         <v>18</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -3968,7 +3980,7 @@
         <v>11</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>13</v>
@@ -3980,10 +3992,10 @@
         <v>297969</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>11</v>
@@ -3995,10 +4007,10 @@
         <v>546173</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>11</v>
@@ -4022,7 +4034,7 @@
         <v>18</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -4031,13 +4043,13 @@
         <v>2017</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -4046,13 +4058,13 @@
         <v>2017</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>113</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4132,7 +4144,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE162B74-D978-451D-9E0F-A606DAD44C61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9D75AC3-04C7-401C-8528-A9F63CCB801A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4149,7 +4161,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4256,10 +4268,10 @@
         <v>17766</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>11</v>
@@ -4286,10 +4298,10 @@
         <v>28295</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>11</v>
@@ -4307,13 +4319,13 @@
         <v>1329</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4337,13 +4349,13 @@
         <v>1329</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4414,7 +4426,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -4429,7 +4441,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -4444,7 +4456,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -4468,7 +4480,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4483,7 +4495,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4498,7 +4510,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4584,7 +4596,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -4599,7 +4611,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -4638,7 +4650,7 @@
         <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -4653,7 +4665,7 @@
         <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4724,7 +4736,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -4739,7 +4751,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -4754,7 +4766,7 @@
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -4778,7 +4790,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4793,7 +4805,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4808,7 +4820,7 @@
         <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4909,7 +4921,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -4963,7 +4975,7 @@
         <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5064,7 +5076,7 @@
         <v>11</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -5118,7 +5130,7 @@
         <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5204,7 +5216,7 @@
         <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>13</v>
@@ -5219,7 +5231,7 @@
         <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>13</v>
@@ -5258,7 +5270,7 @@
         <v>18</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -5273,7 +5285,7 @@
         <v>18</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5341,10 +5353,10 @@
         <v>67934</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>11</v>
@@ -5356,10 +5368,10 @@
         <v>70283</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>11</v>
@@ -5371,10 +5383,10 @@
         <v>138217</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>101</v>
+        <v>198</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>11</v>
@@ -5392,13 +5404,13 @@
         <v>955</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -5407,13 +5419,13 @@
         <v>1304</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -5422,13 +5434,13 @@
         <v>2259</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>111</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5496,10 +5508,10 @@
         <v>278002</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>11</v>
@@ -5511,10 +5523,10 @@
         <v>272031</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>11</v>
@@ -5526,13 +5538,13 @@
         <v>550032</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5547,13 +5559,13 @@
         <v>2284</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -5562,13 +5574,13 @@
         <v>1304</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -5577,13 +5589,13 @@
         <v>3589</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B12-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B12-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67AA4B11-6EF4-4F92-A18E-BE1A9C72EEA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{808F18F7-482F-4E65-ABE2-15923D4AADAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8D587B39-F293-4299-82E4-C322C0CB20DE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F9E18323-6344-41F6-B116-5E0CC7B11BE3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="217">
-  <si>
-    <t>Porcentaje de mecicinas para la diabetes recetados en 2007 (Tasa respuesta: 5,99%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="213">
+  <si>
+    <t>Porcentaje de medicinas para la diabetes recetados en 2007 (Tasa respuesta: 5,99%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -70,7 +70,7 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -112,37 +112,37 @@
     <t>96,28%</t>
   </si>
   <si>
-    <t>81,09%</t>
+    <t>78,43%</t>
   </si>
   <si>
     <t>97,28%</t>
   </si>
   <si>
-    <t>86,5%</t>
+    <t>84,6%</t>
   </si>
   <si>
     <t>96,87%</t>
   </si>
   <si>
-    <t>90,44%</t>
+    <t>89,15%</t>
   </si>
   <si>
     <t>3,72%</t>
   </si>
   <si>
-    <t>18,91%</t>
+    <t>21,57%</t>
   </si>
   <si>
     <t>2,72%</t>
   </si>
   <si>
-    <t>13,5%</t>
+    <t>15,4%</t>
   </si>
   <si>
     <t>3,13%</t>
   </si>
   <si>
-    <t>9,56%</t>
+    <t>10,85%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -154,13 +154,13 @@
     <t>95,32%</t>
   </si>
   <si>
-    <t>76,58%</t>
+    <t>75,66%</t>
   </si>
   <si>
     <t>97,1%</t>
   </si>
   <si>
-    <t>88,37%</t>
+    <t>85,82%</t>
   </si>
   <si>
     <t>11,15%</t>
@@ -169,13 +169,13 @@
     <t>4,68%</t>
   </si>
   <si>
-    <t>23,42%</t>
+    <t>24,34%</t>
   </si>
   <si>
     <t>2,9%</t>
   </si>
   <si>
-    <t>11,63%</t>
+    <t>14,18%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -187,13 +187,13 @@
     <t>95,06%</t>
   </si>
   <si>
-    <t>74,8%</t>
+    <t>76,61%</t>
   </si>
   <si>
     <t>97,59%</t>
   </si>
   <si>
-    <t>85,57%</t>
+    <t>89,36%</t>
   </si>
   <si>
     <t>9,05%</t>
@@ -202,13 +202,13 @@
     <t>4,94%</t>
   </si>
   <si>
-    <t>25,2%</t>
+    <t>23,39%</t>
   </si>
   <si>
     <t>2,41%</t>
   </si>
   <si>
-    <t>14,43%</t>
+    <t>10,64%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -253,37 +253,37 @@
     <t>98,02%</t>
   </si>
   <si>
-    <t>90,04%</t>
+    <t>89,78%</t>
   </si>
   <si>
     <t>97,82%</t>
   </si>
   <si>
-    <t>85,56%</t>
+    <t>90,49%</t>
   </si>
   <si>
     <t>97,92%</t>
   </si>
   <si>
-    <t>93,46%</t>
+    <t>92,76%</t>
   </si>
   <si>
     <t>1,98%</t>
   </si>
   <si>
-    <t>9,96%</t>
+    <t>10,22%</t>
   </si>
   <si>
     <t>2,18%</t>
   </si>
   <si>
-    <t>14,44%</t>
+    <t>9,51%</t>
   </si>
   <si>
     <t>2,08%</t>
   </si>
   <si>
-    <t>6,54%</t>
+    <t>7,24%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -292,103 +292,103 @@
     <t>95,79%</t>
   </si>
   <si>
-    <t>84,9%</t>
+    <t>84,59%</t>
   </si>
   <si>
     <t>97,31%</t>
   </si>
   <si>
-    <t>86,46%</t>
+    <t>86,52%</t>
   </si>
   <si>
     <t>96,54%</t>
   </si>
   <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
   </si>
   <si>
     <t>4,21%</t>
   </si>
   <si>
-    <t>15,1%</t>
+    <t>15,41%</t>
   </si>
   <si>
     <t>2,69%</t>
   </si>
   <si>
-    <t>13,54%</t>
+    <t>13,48%</t>
   </si>
   <si>
     <t>3,46%</t>
   </si>
   <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
   </si>
   <si>
     <t>97,99%</t>
   </si>
   <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
   </si>
   <si>
     <t>97,48%</t>
   </si>
   <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
   </si>
   <si>
     <t>97,72%</t>
   </si>
   <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
   </si>
   <si>
     <t>2,01%</t>
   </si>
   <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
   </si>
   <si>
     <t>2,52%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
   </si>
   <si>
     <t>2,28%</t>
   </si>
   <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Porcentaje de mecicinas para la diabetes recetados en 2012 (Tasa respuesta: 7,85%)</t>
+    <t>Porcentaje de medicinas para la diabetes recetados en 2012 (Tasa respuesta: 7,85%)</t>
   </si>
   <si>
     <t>—%</t>
@@ -430,13 +430,13 @@
     <t>98,23%</t>
   </si>
   <si>
-    <t>92,1%</t>
+    <t>90,72%</t>
   </si>
   <si>
     <t>99,01%</t>
   </si>
   <si>
-    <t>95,16%</t>
+    <t>95,59%</t>
   </si>
   <si>
     <t>5,03%</t>
@@ -445,13 +445,13 @@
     <t>1,77%</t>
   </si>
   <si>
-    <t>7,9%</t>
+    <t>9,28%</t>
   </si>
   <si>
     <t>0,99%</t>
   </si>
   <si>
-    <t>4,84%</t>
+    <t>4,41%</t>
   </si>
   <si>
     <t>92,68%</t>
@@ -484,13 +484,10 @@
     <t>98,0%</t>
   </si>
   <si>
-    <t>88,78%</t>
-  </si>
-  <si>
     <t>98,98%</t>
   </si>
   <si>
-    <t>94,8%</t>
+    <t>95,83%</t>
   </si>
   <si>
     <t>3,68%</t>
@@ -499,13 +496,10 @@
     <t>2,0%</t>
   </si>
   <si>
-    <t>11,22%</t>
-  </si>
-  <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>5,2%</t>
+    <t>4,17%</t>
   </si>
   <si>
     <t>95,66%</t>
@@ -520,13 +514,13 @@
     <t>99,33%</t>
   </si>
   <si>
-    <t>97,84%</t>
+    <t>97,6%</t>
   </si>
   <si>
     <t>99,63%</t>
   </si>
   <si>
-    <t>98,9%</t>
+    <t>98,61%</t>
   </si>
   <si>
     <t>0,84%</t>
@@ -535,40 +529,40 @@
     <t>0,67%</t>
   </si>
   <si>
-    <t>2,16%</t>
+    <t>2,4%</t>
   </si>
   <si>
     <t>0,37%</t>
   </si>
   <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>Porcentaje de mecicinas para la diabetes recetados en 2016 (Tasa respuesta: 7,89%)</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para la diabetes recetados en 2016 (Tasa respuesta: 7,89%)</t>
   </si>
   <si>
     <t>93,04%</t>
   </si>
   <si>
-    <t>65,53%</t>
+    <t>67,24%</t>
   </si>
   <si>
     <t>95,51%</t>
   </si>
   <si>
-    <t>77,78%</t>
+    <t>80,53%</t>
   </si>
   <si>
     <t>6,96%</t>
   </si>
   <si>
-    <t>34,47%</t>
+    <t>32,76%</t>
   </si>
   <si>
     <t>4,49%</t>
   </si>
   <si>
-    <t>22,22%</t>
+    <t>19,47%</t>
   </si>
   <si>
     <t>94,55%</t>
@@ -619,76 +613,70 @@
     <t>1,76%</t>
   </si>
   <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
+    <t>92,7%</t>
   </si>
   <si>
     <t>98,18%</t>
   </si>
   <si>
-    <t>90,17%</t>
+    <t>92,28%</t>
   </si>
   <si>
     <t>98,39%</t>
   </si>
   <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
+    <t>7,3%</t>
   </si>
   <si>
     <t>1,82%</t>
   </si>
   <si>
-    <t>9,83%</t>
+    <t>7,72%</t>
   </si>
   <si>
     <t>1,61%</t>
   </si>
   <si>
-    <t>5,59%</t>
-  </si>
-  <si>
     <t>99,18%</t>
   </si>
   <si>
-    <t>97,21%</t>
+    <t>97,44%</t>
   </si>
   <si>
     <t>99,52%</t>
   </si>
   <si>
-    <t>97,58%</t>
+    <t>97,64%</t>
   </si>
   <si>
     <t>99,35%</t>
   </si>
   <si>
+    <t>98,08%</t>
+  </si>
+  <si>
     <t>99,83%</t>
   </si>
   <si>
     <t>0,82%</t>
   </si>
   <si>
-    <t>2,79%</t>
+    <t>2,56%</t>
   </si>
   <si>
     <t>0,48%</t>
   </si>
   <si>
-    <t>2,42%</t>
+    <t>2,36%</t>
   </si>
   <si>
     <t>0,65%</t>
   </si>
   <si>
     <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
   </si>
 </sst>
 </file>
@@ -1100,7 +1088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FD3FFEC-420D-499B-BAB3-8025DF654782}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F45EF2D-253C-4D71-B610-7B912595B2C8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2631,7 +2619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B232CFD2-7BC1-4673-91AF-41E89C9F0E7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92DA29A9-B934-42E0-A795-31C12F1A6156}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3685,7 +3673,7 @@
         <v>147</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>148</v>
+        <v>36</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>11</v>
@@ -3697,10 +3685,10 @@
         <v>109674</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>11</v>
@@ -3724,7 +3712,7 @@
         <v>18</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -3733,13 +3721,13 @@
         <v>1131</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -3748,13 +3736,13 @@
         <v>1131</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,7 +3813,7 @@
         <v>11</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>13</v>
@@ -3879,7 +3867,7 @@
         <v>18</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3980,7 +3968,7 @@
         <v>11</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>13</v>
@@ -3992,10 +3980,10 @@
         <v>297969</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>11</v>
@@ -4007,10 +3995,10 @@
         <v>546173</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>11</v>
@@ -4034,7 +4022,7 @@
         <v>18</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -4043,13 +4031,13 @@
         <v>2017</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -4058,13 +4046,13 @@
         <v>2017</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4144,7 +4132,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9D75AC3-04C7-401C-8528-A9F63CCB801A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B751489D-4354-4BDA-9994-F76921631C0A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4161,7 +4149,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4268,10 +4256,10 @@
         <v>17766</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>11</v>
@@ -4298,10 +4286,10 @@
         <v>28295</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>11</v>
@@ -4319,13 +4307,13 @@
         <v>1329</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4349,13 +4337,13 @@
         <v>1329</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4426,7 +4414,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -4441,7 +4429,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -4456,7 +4444,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -4480,7 +4468,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4495,7 +4483,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4510,7 +4498,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4611,7 +4599,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -4665,7 +4653,7 @@
         <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4736,7 +4724,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -4751,7 +4739,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -4760,13 +4748,13 @@
         <v>69</v>
       </c>
       <c r="N13" s="7">
-        <v>69242</v>
+        <v>69241</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -4790,7 +4778,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4805,7 +4793,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4820,7 +4808,7 @@
         <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4862,7 +4850,7 @@
         <v>69</v>
       </c>
       <c r="N15" s="7">
-        <v>69242</v>
+        <v>69241</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -4921,7 +4909,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -4975,7 +4963,7 @@
         <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,7 +5064,7 @@
         <v>11</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -5130,7 +5118,7 @@
         <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5216,7 +5204,7 @@
         <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>13</v>
@@ -5231,7 +5219,7 @@
         <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>13</v>
@@ -5270,7 +5258,7 @@
         <v>18</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -5285,7 +5273,7 @@
         <v>18</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5353,10 +5341,10 @@
         <v>67934</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>11</v>
@@ -5368,10 +5356,10 @@
         <v>70283</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>11</v>
@@ -5383,10 +5371,10 @@
         <v>138217</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>11</v>
@@ -5404,13 +5392,13 @@
         <v>955</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>199</v>
+        <v>165</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -5419,13 +5407,13 @@
         <v>1304</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -5434,13 +5422,13 @@
         <v>2259</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5508,10 +5496,10 @@
         <v>278002</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>11</v>
@@ -5523,10 +5511,10 @@
         <v>272031</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>11</v>
@@ -5538,13 +5526,13 @@
         <v>550032</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5559,13 +5547,13 @@
         <v>2284</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -5574,13 +5562,13 @@
         <v>1304</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -5589,13 +5577,13 @@
         <v>3589</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B12-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16B12-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{808F18F7-482F-4E65-ABE2-15923D4AADAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{600C0381-5C06-49C5-8E64-82471F6DBE99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F9E18323-6344-41F6-B116-5E0CC7B11BE3}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F6DDAF37-2633-4E79-8719-97F53E5A2CED}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="212">
   <si>
     <t>Porcentaje de medicinas para la diabetes recetados en 2007 (Tasa respuesta: 5,99%)</t>
   </si>
@@ -391,7 +391,16 @@
     <t>Porcentaje de medicinas para la diabetes recetados en 2012 (Tasa respuesta: 7,85%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
   </si>
   <si>
     <t>94,04%</t>
@@ -424,34 +433,34 @@
     <t>2,99%</t>
   </si>
   <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
   </si>
   <si>
     <t>92,68%</t>
@@ -466,15 +475,9 @@
     <t>4,44%</t>
   </si>
   <si>
-    <t>90,01%</t>
-  </si>
-  <si>
     <t>95,93%</t>
   </si>
   <si>
-    <t>9,99%</t>
-  </si>
-  <si>
     <t>4,07%</t>
   </si>
   <si>
@@ -565,16 +568,10 @@
     <t>19,47%</t>
   </si>
   <si>
-    <t>94,55%</t>
-  </si>
-  <si>
     <t>96,02%</t>
   </si>
   <si>
     <t>97,66%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
   </si>
   <si>
     <t>3,98%</t>
@@ -1088,7 +1085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F45EF2D-253C-4D71-B610-7B912595B2C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D7D6604-FC3E-4EBC-A15F-249B6B3FF4E8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2619,7 +2616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92DA29A9-B934-42E0-A795-31C12F1A6156}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998BD6E6-7EE0-4B9B-9D51-74BC87BDAAA0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2737,43 +2734,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D4" s="7">
+        <v>17343</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="I4" s="7">
+        <v>18450</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>117</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="N4" s="7">
+        <v>35793</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2784,41 +2787,47 @@
       <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="7"/>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2827,43 +2836,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D6" s="7">
+        <v>17343</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="I6" s="7">
+        <v>18450</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="N6" s="7">
+        <v>35793</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2883,7 +2898,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -2898,7 +2913,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -2913,7 +2928,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -2937,7 +2952,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2952,7 +2967,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2967,7 +2982,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,7 +3053,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -3053,7 +3068,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -3068,7 +3083,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -3092,7 +3107,7 @@
         <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3107,7 +3122,7 @@
         <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -3122,7 +3137,7 @@
         <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3184,46 +3199,46 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D13" s="7">
-        <v>39763</v>
+        <v>22420</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="I13" s="7">
-        <v>49186</v>
+        <v>30737</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="N13" s="7">
-        <v>88949</v>
+        <v>53156</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -3247,7 +3262,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -3256,13 +3271,13 @@
         <v>886</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -3271,13 +3286,13 @@
         <v>886</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3286,10 +3301,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D15" s="7">
-        <v>39763</v>
+        <v>22420</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -3301,10 +3316,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="I15" s="7">
-        <v>50072</v>
+        <v>31623</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -3316,10 +3331,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="N15" s="7">
-        <v>89835</v>
+        <v>54042</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -3363,7 +3378,7 @@
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -3378,7 +3393,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -3417,7 +3432,7 @@
         <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3432,7 +3447,7 @@
         <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3503,7 +3518,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -3533,7 +3548,7 @@
         <v>11</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -3557,7 +3572,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3587,7 +3602,7 @@
         <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3658,7 +3673,7 @@
         <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>13</v>
@@ -3670,7 +3685,7 @@
         <v>55347</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>36</v>
@@ -3685,10 +3700,10 @@
         <v>109674</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>11</v>
@@ -3712,7 +3727,7 @@
         <v>18</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -3721,7 +3736,7 @@
         <v>1131</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>17</v>
@@ -3736,13 +3751,13 @@
         <v>1131</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3813,7 +3828,7 @@
         <v>11</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>13</v>
@@ -3828,7 +3843,7 @@
         <v>11</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>13</v>
@@ -3843,7 +3858,7 @@
         <v>11</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>13</v>
@@ -3867,7 +3882,7 @@
         <v>18</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3882,7 +3897,7 @@
         <v>18</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -3897,7 +3912,7 @@
         <v>18</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3968,7 +3983,7 @@
         <v>11</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>13</v>
@@ -3980,10 +3995,10 @@
         <v>297969</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>11</v>
@@ -3995,10 +4010,10 @@
         <v>546173</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>11</v>
@@ -4022,7 +4037,7 @@
         <v>18</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -4031,13 +4046,13 @@
         <v>2017</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -4046,13 +4061,13 @@
         <v>2017</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4132,7 +4147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B751489D-4354-4BDA-9994-F76921631C0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4ABD60A-77FF-42E3-9B70-039E0FD9CBC5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4149,7 +4164,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4256,10 +4271,10 @@
         <v>17766</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>11</v>
@@ -4286,10 +4301,10 @@
         <v>28295</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>11</v>
@@ -4307,13 +4322,13 @@
         <v>1329</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4337,13 +4352,13 @@
         <v>1329</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4414,7 +4429,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>175</v>
+        <v>118</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -4468,37 +4483,37 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4584,7 +4599,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -4599,7 +4614,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>175</v>
+        <v>118</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -4638,7 +4653,7 @@
         <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -4653,7 +4668,7 @@
         <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4739,7 +4754,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -4754,7 +4769,7 @@
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -4778,7 +4793,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4793,22 +4808,22 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4909,7 +4924,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>175</v>
+        <v>118</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -4963,7 +4978,7 @@
         <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>178</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5064,7 +5079,7 @@
         <v>11</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -5118,7 +5133,7 @@
         <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5189,7 +5204,7 @@
         <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>13</v>
@@ -5204,7 +5219,7 @@
         <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>13</v>
@@ -5219,7 +5234,7 @@
         <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>13</v>
@@ -5243,7 +5258,7 @@
         <v>18</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -5258,22 +5273,22 @@
         <v>18</v>
       </c>
       <c r="L23" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="M23" s="7">
+        <v>0</v>
+      </c>
+      <c r="N23" s="7">
+        <v>0</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="M23" s="7">
-        <v>0</v>
-      </c>
-      <c r="N23" s="7">
-        <v>0</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5341,10 +5356,10 @@
         <v>67934</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>11</v>
@@ -5356,10 +5371,10 @@
         <v>70283</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>11</v>
@@ -5371,10 +5386,10 @@
         <v>138217</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>11</v>
@@ -5392,13 +5407,13 @@
         <v>955</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -5407,13 +5422,13 @@
         <v>1304</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -5422,13 +5437,13 @@
         <v>2259</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5496,10 +5511,10 @@
         <v>278002</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>11</v>
@@ -5511,10 +5526,10 @@
         <v>272031</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>11</v>
@@ -5526,13 +5541,13 @@
         <v>550032</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5547,13 +5562,13 @@
         <v>2284</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -5562,13 +5577,13 @@
         <v>1304</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -5577,13 +5592,13 @@
         <v>3589</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
